--- a/benchmark/results_pi082.xlsx
+++ b/benchmark/results_pi082.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/easonzz/Documents/GitHub/olspthermo/examples/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B5354A-0976-1149-913F-2A8868A5F3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="840" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>sample_no</t>
   </si>
@@ -233,6 +239,12 @@
   </si>
   <si>
     <t>err_zThermoAl</t>
+  </si>
+  <si>
+    <t>t_zThermoCr</t>
+  </si>
+  <si>
+    <t>err_zThermoCr</t>
   </si>
   <si>
     <t>z_thermo_cr</t>
@@ -253,8 +265,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +329,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -363,7 +383,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,9 +415,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,6 +467,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -604,14 +660,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BY2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
+      <selection activeCell="BW3" sqref="BW3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="35" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="55" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="58" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="62" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="69" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="79" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,28 +949,34 @@
       <c r="BY1" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B2">
-        <v>40.11199999999999</v>
+        <v>40.111999999999988</v>
       </c>
       <c r="C2">
-        <v>0.0192</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="D2">
-        <v>0.03410000000000001</v>
+        <v>3.4100000000000012E-2</v>
       </c>
       <c r="E2">
         <v>16.669</v>
       </c>
       <c r="F2">
-        <v>0.269</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="G2">
-        <v>42.334</v>
+        <v>42.334000000000003</v>
       </c>
       <c r="H2">
         <v>0.2420000000000001</v>
@@ -876,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.03600000000000001</v>
+        <v>3.6000000000000011E-2</v>
       </c>
       <c r="L2">
-        <v>0.196</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="M2">
-        <v>99.90599999999999</v>
+        <v>99.905999999999992</v>
       </c>
       <c r="N2">
-        <v>0.07167857142857145</v>
+        <v>7.1678571428571453E-2</v>
       </c>
       <c r="O2">
-        <v>2.38138095238095</v>
+        <v>2.3813809523809502</v>
       </c>
       <c r="P2">
-        <v>25.4001547619048</v>
+        <v>25.400154761904801</v>
       </c>
       <c r="Q2">
-        <v>25.54407142857143</v>
+        <v>25.544071428571431</v>
       </c>
       <c r="R2">
         <v>31.85100000000001</v>
       </c>
       <c r="S2">
-        <v>0.2553690476190481</v>
+        <v>0.25536904761904811</v>
       </c>
       <c r="T2">
         <v>11.45765476190479</v>
       </c>
       <c r="U2">
-        <v>0.00594047619047619</v>
+        <v>5.9404761904761896E-3</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -915,40 +1027,40 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>96.97169047619047</v>
+        <v>96.971690476190474</v>
       </c>
       <c r="Y2">
-        <v>0.001192966738874738</v>
+        <v>1.192966738874738E-3</v>
       </c>
       <c r="Z2">
-        <v>0.0298172803926205</v>
+        <v>2.98172803926205E-2</v>
       </c>
       <c r="AA2">
-        <v>0.4982314023199318</v>
+        <v>0.49823140231993179</v>
       </c>
       <c r="AB2">
-        <v>0.3361274321084941</v>
+        <v>0.33612743210849411</v>
       </c>
       <c r="AC2">
-        <v>0.4433330920711985</v>
+        <v>0.44333309207119848</v>
       </c>
       <c r="AD2">
-        <v>0.003599918677919305</v>
+        <v>3.599918677919305E-3</v>
       </c>
       <c r="AE2">
-        <v>0.2842780133659052</v>
+        <v>0.28427801336590519</v>
       </c>
       <c r="AF2">
         <v>1.595387138936069</v>
       </c>
       <c r="AG2">
-        <v>3.198101488943409</v>
+        <v>3.1981014889434092</v>
       </c>
       <c r="AH2">
-        <v>0.1695980307437125</v>
+        <v>0.16959803074371249</v>
       </c>
       <c r="AI2">
-        <v>0.273735061327486</v>
+        <v>0.27373506132748598</v>
       </c>
       <c r="AJ2">
         <v>1</v>
@@ -960,85 +1072,85 @@
         <v>1</v>
       </c>
       <c r="AM2">
-        <v>0.1680637160542471</v>
+        <v>0.16806371605424711</v>
       </c>
       <c r="AN2">
-        <v>-0.03516231220593901</v>
+        <v>-3.516231220593901E-2</v>
       </c>
       <c r="AO2">
-        <v>0.08479901537185625</v>
+        <v>8.4799015371856246E-2</v>
       </c>
       <c r="AP2">
-        <v>0.2842780133659052</v>
+        <v>0.28427801336590519</v>
       </c>
       <c r="AQ2">
-        <v>0.0298172803926205</v>
+        <v>2.98172803926205E-2</v>
       </c>
       <c r="AR2">
         <v>0.5317957129786901</v>
       </c>
       <c r="AS2">
-        <v>0.5345624389741869</v>
+        <v>0.53456243897418687</v>
       </c>
       <c r="AT2">
-        <v>0.3160305958709028</v>
+        <v>0.31603059587090282</v>
       </c>
       <c r="AU2">
-        <v>0.05606904994703357</v>
+        <v>5.6069049947033572E-2</v>
       </c>
       <c r="AV2">
-        <v>0.1594578769672299</v>
+        <v>0.15945787696722991</v>
       </c>
       <c r="AW2">
-        <v>0.2427287650700393</v>
+        <v>0.24272876507003929</v>
       </c>
       <c r="AX2">
-        <v>0.1470925097516874</v>
+        <v>0.14709250975168739</v>
       </c>
       <c r="AY2">
-        <v>0.0260966418563818</v>
+        <v>2.6096641856381799E-2</v>
       </c>
       <c r="AZ2">
-        <v>0.07421768534198164</v>
+        <v>7.4217685341981643E-2</v>
       </c>
       <c r="BA2">
-        <v>0.1679884406654571</v>
+        <v>0.16798844066545709</v>
       </c>
       <c r="BB2">
-        <v>0.02980392529476292</v>
+        <v>2.9803925294762921E-2</v>
       </c>
       <c r="BC2">
-        <v>0.08476103406928251</v>
+        <v>8.4761034069282509E-2</v>
       </c>
       <c r="BD2">
-        <v>0.01771953526467643</v>
+        <v>1.7719535264676432E-2</v>
       </c>
       <c r="BE2">
-        <v>0.05039356787426276</v>
+        <v>5.039356787426276E-2</v>
       </c>
       <c r="BF2">
-        <v>0.008940651668123543</v>
+        <v>8.9406516681235434E-3</v>
       </c>
       <c r="BG2">
-        <v>0.7311377701734378</v>
+        <v>0.73113777017343784</v>
       </c>
       <c r="BH2">
-        <v>0.2857570011620313</v>
+        <v>0.28575700116203129</v>
       </c>
       <c r="BI2">
-        <v>0.5345624389741869</v>
+        <v>0.53456243897418687</v>
       </c>
       <c r="BJ2">
-        <v>0.4028547845204921</v>
+        <v>0.40285478452049212</v>
       </c>
       <c r="BK2">
-        <v>-6.613213161686972</v>
+        <v>-6.6132131616869723</v>
       </c>
       <c r="BL2">
-        <v>-6.564641592230066</v>
+        <v>-6.5646415922300658</v>
       </c>
       <c r="BM2">
-        <v>0.8190725136852074</v>
+        <v>0.81907251368520739</v>
       </c>
       <c r="BN2">
         <v>1090.821372580865</v>
@@ -1050,7 +1162,7 @@
         <v>1171.235390835049</v>
       </c>
       <c r="BQ2">
-        <v>1183.901405881633</v>
+        <v>1183.9014058816331</v>
       </c>
       <c r="BR2">
         <v>1171.235390835049</v>
@@ -1065,16 +1177,22 @@
         <v>43.3</v>
       </c>
       <c r="BV2">
-        <v>0.7614341354760907</v>
+        <v>1090.821372580865</v>
       </c>
       <c r="BW2">
+        <v>23.9</v>
+      </c>
+      <c r="BX2">
+        <v>0.76143413547609073</v>
+      </c>
+      <c r="BY2">
         <v>1.625903104690958</v>
       </c>
-      <c r="BX2">
-        <v>0.2231989025672114</v>
-      </c>
-      <c r="BY2">
-        <v>0.051985134784126</v>
+      <c r="BZ2">
+        <v>0.22319890256721139</v>
+      </c>
+      <c r="CA2">
+        <v>5.1985134784126023E-2</v>
       </c>
     </row>
   </sheetData>
